--- a/帳密表.xlsx
+++ b/帳密表.xlsx
@@ -104,10 +104,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>初心者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>b</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -131,6 +127,10 @@
   </si>
   <si>
     <t>GM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劍士</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +419,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -452,7 +452,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -508,21 +508,21 @@
         <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/帳密表.xlsx
+++ b/帳密表.xlsx
@@ -130,7 +130,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>劍士</t>
+    <t>初心者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>

--- a/帳密表.xlsx
+++ b/帳密表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>帳號</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>zasea</t>
-  </si>
-  <si>
-    <t>渣海</t>
   </si>
   <si>
     <r>
@@ -82,6 +79,97 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>GM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YunmengHeifeng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ulu</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嚕嚕嚕嚕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zasea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lalalalala</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉拉拉拉拉</t>
+  </si>
+  <si>
+    <t>problem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大麻煩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>patato</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gan</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿甘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YunmengYongyong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YunmengMoi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -91,46 +179,164 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>測試者</t>
+      <t>墨易</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+    <t>GM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>azzz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿滋阿滋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chinwhan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清歡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>father</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>負卿</t>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>統計者</t>
+      <t>outhstar</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初心者</t>
+    <t>南星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月晴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moonsun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inxin</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣欣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc15151</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15151</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>baga5566</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zasea3344</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lulu1275</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>problem9527</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lalalalala1024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>patato2048</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>agan7788</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>azzz6677</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chinwhan5679</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>father1150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>southstar7086</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moonsun0324</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xinxin9180</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -416,15 +622,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+    <col min="3" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -438,7 +646,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -446,13 +654,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -460,96 +668,241 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>15151</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1518,6 +1871,7 @@
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/帳密表.xlsx
+++ b/帳密表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>帳號</t>
   </si>
@@ -337,6 +337,46 @@
   </si>
   <si>
     <t>xinxin9180</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -624,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -888,9 +928,33 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="3"/>
+      <c r="A19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
